--- a/Лаба пОМОИ.xlsx
+++ b/Лаба пОМОИ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Примеры" sheetId="3" r:id="rId1"/>
     <sheet name="Лаба 1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="248">
   <si>
     <t>Задание 1</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Az=</t>
   </si>
   <si>
-    <t>Delta=</t>
-  </si>
-  <si>
     <t>x=</t>
   </si>
   <si>
@@ -780,12 +777,27 @@
   </si>
   <si>
     <t xml:space="preserve">Закон Хаббла: v=S*h </t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>Число галактик</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>x*y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1039,19 +1051,9 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="26"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1066,7 +1068,6 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1112,7 +1113,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1156,47 +1156,33 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="198591232"/>
-        <c:axId val="198592768"/>
+        <c:dLbls/>
+        <c:axId val="93848704"/>
+        <c:axId val="93850240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198591232"/>
+        <c:axId val="93848704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198592768"/>
+        <c:crossAx val="93850240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198592768"/>
+        <c:axId val="93850240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198591232"/>
+        <c:crossAx val="93848704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1204,15 +1190,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1220,19 +1204,8 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1241,13 +1214,12 @@
           <c:yMode val="edge"/>
           <c:x val="5.7841608429753125E-2"/>
           <c:y val="6.2170935138261434E-2"/>
-          <c:w val="0.81552021767450356"/>
+          <c:w val="0.81552021767450389"/>
           <c:h val="0.79319856649893672"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1263,8 +1235,6 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1352,45 +1322,32 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="199113728"/>
-        <c:axId val="199140096"/>
+        <c:dLbls/>
+        <c:axId val="94039424"/>
+        <c:axId val="95728768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199113728"/>
+        <c:axId val="94039424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199140096"/>
+        <c:crossAx val="95728768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199140096"/>
+        <c:axId val="95728768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199113728"/>
+        <c:crossAx val="94039424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1398,15 +1355,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1414,26 +1369,16 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="140"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="40"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="40"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5114333054058801E-2"/>
+          <c:x val="5.5114333054058808E-2"/>
           <c:y val="2.8520371851892188E-2"/>
           <c:w val="0.71166349182112276"/>
           <c:h val="0.79631128869746559"/>
@@ -1441,7 +1386,6 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1461,8 +1405,6 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1968,47 +1910,33 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="198510464"/>
-        <c:axId val="198512000"/>
+        <c:dLbls/>
+        <c:axId val="95742208"/>
+        <c:axId val="97460224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198510464"/>
+        <c:axId val="95742208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198512000"/>
+        <c:crossAx val="97460224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198512000"/>
+        <c:axId val="97460224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198510464"/>
+        <c:crossAx val="95742208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2016,15 +1944,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2419,18 +2345,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2442,24 +2368,24 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" s="14">
         <v>1</v>
@@ -2475,10 +2401,10 @@
         <v>6</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -2612,7 +2538,7 @@
     <row r="10" spans="1:18">
       <c r="A10" s="26"/>
       <c r="B10" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C10" s="14">
         <f t="array" ref="C10:C12">MMULT(B6:D8,F2:F4)</f>
@@ -2681,16 +2607,16 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
@@ -2910,16 +2836,14 @@
       <c r="L23" s="27"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="26" t="s">
-        <v>20</v>
-      </c>
+      <c r="A24" s="26"/>
       <c r="B24" s="14">
         <f>MDETERM(B2:D4)</f>
         <v>-5</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="14">
         <f>B25/B24</f>
@@ -2935,7 +2859,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="14">
         <f>MDETERM(B20:D22)</f>
@@ -2943,7 +2867,7 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="14">
         <f>B26/B24</f>
@@ -2959,7 +2883,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="14">
         <f>MDETERM(F20:H22)</f>
@@ -2967,7 +2891,7 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="14">
         <f>B27/B26</f>
@@ -2983,7 +2907,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="29">
         <f>MDETERM(J20:L22)</f>
@@ -3007,11 +2931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q323"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3046,6 +2970,15 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="G2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="17.25">
       <c r="A3" s="3" t="s">
@@ -3061,6 +2994,17 @@
         <f t="shared" ref="D3:D13" si="0">C3/B3</f>
         <v>0.34090909090909088</v>
       </c>
+      <c r="G3">
+        <f>B3*B3</f>
+        <v>484</v>
+      </c>
+      <c r="H3">
+        <f>B3*C3</f>
+        <v>165</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="17.25">
       <c r="A4" s="3" t="s">
@@ -3076,6 +3020,14 @@
         <f t="shared" si="0"/>
         <v>0.35294117647058826</v>
       </c>
+      <c r="G4">
+        <f>B4*B4</f>
+        <v>4624</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H13" si="1">B4*C4</f>
+        <v>1632</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="17.25">
       <c r="A5" s="3" t="s">
@@ -3090,6 +3042,14 @@
       <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>0.29629629629629628</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G13" si="2">B5*B5</f>
+        <v>11664</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>3456</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -3116,13 +3076,25 @@
         <v>0.34306569343065696</v>
       </c>
       <c r="F6" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>18769</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>6439</v>
       </c>
       <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>245</v>
+      </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="M6" s="14" t="s">
+        <v>246</v>
+      </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -3142,11 +3114,25 @@
         <f t="shared" si="0"/>
         <v>0.36470588235294116</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>65025</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>23715</v>
+      </c>
       <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="J7">
+        <v>2685141</v>
+      </c>
+      <c r="K7" s="14">
+        <v>4185</v>
+      </c>
       <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="M7" s="14">
+        <v>951612</v>
+      </c>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -3166,11 +3152,29 @@
         <f t="shared" si="0"/>
         <v>0.38095238095238093</v>
       </c>
+      <c r="F8" t="e">
+        <f>MDETERM(B3:C13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>99225</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>37800</v>
+      </c>
       <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="J8" s="14">
+        <v>4185</v>
+      </c>
+      <c r="K8" s="14">
+        <v>11</v>
+      </c>
       <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="M8" s="14">
+        <v>1486.5</v>
+      </c>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
@@ -3189,6 +3193,14 @@
       <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0.34358974358974359</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>152100</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>52260</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -3214,6 +3226,14 @@
         <f t="shared" si="0"/>
         <v>0.35555555555555557</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>164025</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>58320</v>
+      </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="14"/>
@@ -3238,6 +3258,14 @@
         <f t="shared" si="0"/>
         <v>0.35766423357664234</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>469225</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>167825</v>
+      </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="14"/>
@@ -3262,6 +3290,14 @@
         <f t="shared" si="0"/>
         <v>0.37142857142857144</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>490000</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>182000</v>
+      </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="14"/>
@@ -3286,6 +3322,14 @@
         <f t="shared" si="0"/>
         <v>0.34545454545454546</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>1210000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>418000</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="14"/>
@@ -3298,9 +3342,23 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2">
+        <f>SUM(B3:B13)</f>
+        <v>4185</v>
+      </c>
+      <c r="C14" s="2">
+        <f>SUM(C3:C13)</f>
+        <v>1486.5</v>
+      </c>
       <c r="D14" s="2"/>
+      <c r="G14">
+        <f>SUM(G3:G13)</f>
+        <v>2685141</v>
+      </c>
+      <c r="H14">
+        <f>SUM(H3:H13)</f>
+        <v>951612</v>
+      </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="14"/>
@@ -3317,10 +3375,10 @@
       </c>
       <c r="B15" s="2" cm="1">
         <f t="array" ref="B15:C15">LINEST(C3:C13,B3:B13)</f>
-        <v>0.35323692769602155</v>
+        <v>0.35323692769602161</v>
       </c>
       <c r="C15" s="2">
-        <v>0.74576887201362752</v>
+        <v>0.74576887201359909</v>
       </c>
       <c r="D15" s="2"/>
       <c r="I15" s="13"/>
@@ -3533,7 +3591,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -3547,16 +3605,16 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -3570,7 +3628,7 @@
     </row>
     <row r="36" spans="1:17" ht="15.75">
       <c r="A36" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="9">
         <v>965</v>
@@ -3580,21 +3638,17 @@
         <v>1021315</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E36" s="10">
         <v>165274</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H36">
         <f>LINEST(C36:C120,B36:B120)</f>
-        <v>-36.670571584097793</v>
-      </c>
-      <c r="I36" t="e">
-        <f>LINEST(D36:D120,C36:C120)</f>
-        <v>#VALUE!</v>
+        <v>-36.670571584097743</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="14"/>
@@ -3607,17 +3661,17 @@
     </row>
     <row r="37" spans="1:17" ht="15.75">
       <c r="A37" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="9">
         <v>1745</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" ref="C37:C100" si="1">LOOKUP(A37:A121,D37:D236,E37:E236)</f>
+        <f t="shared" ref="C37:C100" si="3">LOOKUP(A37:A121,D37:D236,E37:E236)</f>
         <v>1377792</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E37" s="10">
         <v>82902</v>
@@ -3634,17 +3688,17 @@
     </row>
     <row r="38" spans="1:17" ht="15.75">
       <c r="A38" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="9">
         <v>807</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1143563</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E38" s="10">
         <v>146374</v>
@@ -3661,17 +3715,17 @@
     </row>
     <row r="39" spans="1:17" ht="15.75">
       <c r="A39" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="9">
         <v>416</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1250639</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E39" s="10">
         <v>233855</v>
@@ -3688,17 +3742,17 @@
     </row>
     <row r="40" spans="1:17" ht="15.75">
       <c r="A40" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="9">
         <v>3350</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1499011</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E40" s="10">
         <v>106453</v>
@@ -3715,17 +3769,17 @@
     </row>
     <row r="41" spans="1:17" ht="15.75">
       <c r="A41" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="9">
         <v>2697</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1154077</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" s="10">
         <v>188958</v>
@@ -3742,17 +3796,17 @@
     </row>
     <row r="42" spans="1:17" ht="15.75">
       <c r="A42" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="9">
         <v>1070</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1091635</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E42" s="10">
         <v>102653</v>
@@ -3769,17 +3823,17 @@
     </row>
     <row r="43" spans="1:17" ht="15.75">
       <c r="A43" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="9">
         <v>1066</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1164916</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E43" s="10">
         <v>348782</v>
@@ -3796,17 +3850,17 @@
     </row>
     <row r="44" spans="1:17" ht="15.75">
       <c r="A44" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="9">
         <v>714</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4848814</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E44" s="10">
         <v>520723</v>
@@ -3823,17 +3877,17 @@
     </row>
     <row r="45" spans="1:17" ht="15.75">
       <c r="A45" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="9">
         <v>1336</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1062329</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E45" s="10">
         <v>109235</v>
@@ -3850,17 +3904,17 @@
     </row>
     <row r="46" spans="1:17" ht="15.75">
       <c r="A46" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="9">
         <v>1763</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1130319</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" s="10">
         <v>199650</v>
@@ -3877,7 +3931,7 @@
     </row>
     <row r="47" spans="1:17" ht="15.75">
       <c r="A47" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="18">
         <v>4247</v>
@@ -3886,7 +3940,7 @@
         <v>165274</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E47" s="10">
         <v>215446</v>
@@ -3903,7 +3957,7 @@
     </row>
     <row r="48" spans="1:17" ht="15.75">
       <c r="A48" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="18">
         <v>1254</v>
@@ -3912,7 +3966,7 @@
         <v>348782</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E48" s="10">
         <v>612149</v>
@@ -3920,7 +3974,7 @@
     </row>
     <row r="49" spans="1:5" ht="15.75">
       <c r="A49" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="18">
         <v>1393</v>
@@ -3929,7 +3983,7 @@
         <v>520723</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E49" s="10">
         <v>112419</v>
@@ -3937,7 +3991,7 @@
     </row>
     <row r="50" spans="1:5" ht="15.75">
       <c r="A50" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="18">
         <v>3574</v>
@@ -3946,7 +4000,7 @@
         <v>612149</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E50" s="10">
         <v>356476</v>
@@ -3954,7 +4008,7 @@
     </row>
     <row r="51" spans="1:5" ht="15.75">
       <c r="A51" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="18">
         <v>668</v>
@@ -3963,7 +4017,7 @@
         <v>356476</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E51" s="10">
         <v>98832</v>
@@ -3971,17 +4025,17 @@
     </row>
     <row r="52" spans="1:5" ht="15.75">
       <c r="A52" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="9">
         <v>8218</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>210096</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E52" s="10">
         <v>156391</v>
@@ -3989,17 +4043,17 @@
     </row>
     <row r="53" spans="1:5" ht="15.75">
       <c r="A53" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="9">
         <v>7846</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>214421</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" s="10">
         <v>210096</v>
@@ -4007,17 +4061,17 @@
     </row>
     <row r="54" spans="1:5" ht="15.75">
       <c r="A54" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="9">
         <v>381</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>415696</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E54" s="10">
         <v>214421</v>
@@ -4025,17 +4079,17 @@
     </row>
     <row r="55" spans="1:5" ht="15.75">
       <c r="A55" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="9">
         <v>530</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>218800</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E55" s="10">
         <v>246396</v>
@@ -4043,17 +4097,17 @@
     </row>
     <row r="56" spans="1:5" ht="15.75">
       <c r="A56" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="9">
         <v>9165</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>592119</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E56" s="10">
         <v>415696</v>
@@ -4061,17 +4115,17 @@
     </row>
     <row r="57" spans="1:5" ht="15.75">
       <c r="A57" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="9">
         <v>1766</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>311662</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E57" s="10">
         <v>89181</v>
@@ -4079,17 +4133,17 @@
     </row>
     <row r="58" spans="1:5" ht="15.75">
       <c r="A58" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="9">
         <v>194</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>348288</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E58" s="10">
         <v>98866</v>
@@ -4097,17 +4151,17 @@
     </row>
     <row r="59" spans="1:5" ht="15.75">
       <c r="A59" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="9">
         <v>989</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>314485</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E59" s="10">
         <v>218800</v>
@@ -4115,17 +4169,17 @@
     </row>
     <row r="60" spans="1:5" ht="15.75">
       <c r="A60" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="9">
         <v>477</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>301740</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E60" s="10">
         <v>592119</v>
@@ -4133,17 +4187,17 @@
     </row>
     <row r="61" spans="1:5" ht="15.75">
       <c r="A61" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B61" s="9">
         <v>509</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>889759</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E61" s="10">
         <v>311662</v>
@@ -4151,17 +4205,17 @@
     </row>
     <row r="62" spans="1:5" ht="15.75">
       <c r="A62" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="9">
         <v>3799</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95855</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E62" s="10">
         <v>348288</v>
@@ -4169,17 +4223,17 @@
     </row>
     <row r="63" spans="1:5" ht="15.75">
       <c r="A63" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="9">
         <v>1782</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>271694</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E63" s="10">
         <v>1021315</v>
@@ -4187,17 +4241,17 @@
     </row>
     <row r="64" spans="1:5" ht="15.75">
       <c r="A64" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="9">
         <v>295</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>409331</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E64" s="10">
         <v>170716</v>
@@ -4205,17 +4259,17 @@
     </row>
     <row r="65" spans="1:5" ht="15.75">
       <c r="A65" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B65" s="9">
         <v>1200</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>628208</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" s="10">
         <v>314485</v>
@@ -4223,17 +4277,17 @@
     </row>
     <row r="66" spans="1:5" ht="15.75">
       <c r="A66" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="9">
         <v>5195</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>587256</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E66" s="10">
         <v>301740</v>
@@ -4241,17 +4295,17 @@
     </row>
     <row r="67" spans="1:5" ht="15.75">
       <c r="A67" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" s="9">
         <v>748</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>248785</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E67" s="10">
         <v>889759</v>
@@ -4259,17 +4313,17 @@
     </row>
     <row r="68" spans="1:5" ht="15.75">
       <c r="A68" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" s="9">
         <v>1238</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>431591</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E68" s="10">
         <v>91337</v>
@@ -4277,7 +4331,7 @@
     </row>
     <row r="69" spans="1:5" ht="15.75">
       <c r="A69" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="9">
         <v>185</v>
@@ -4287,7 +4341,7 @@
         <v>325205</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E69" s="10">
         <v>100062</v>
@@ -4295,17 +4349,17 @@
     </row>
     <row r="70" spans="1:5" ht="15.75">
       <c r="A70" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="9">
         <v>3608</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>532923</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E70" s="10">
         <v>92623</v>
@@ -4313,17 +4367,17 @@
     </row>
     <row r="71" spans="1:5" ht="15.75">
       <c r="A71" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" s="9">
         <v>961</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>473756</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E71" s="10">
         <v>95855</v>
@@ -4331,17 +4385,17 @@
     </row>
     <row r="72" spans="1:5" ht="15.75">
       <c r="A72" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B72" s="9">
         <v>346</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>268660</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E72" s="10">
         <v>271694</v>
@@ -4349,17 +4403,17 @@
     </row>
     <row r="73" spans="1:5" ht="15.75">
       <c r="A73" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B73" s="9">
         <v>1345</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>744977</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E73" s="10">
         <v>88654</v>
@@ -4367,17 +4421,17 @@
     </row>
     <row r="74" spans="1:5" ht="15.75">
       <c r="A74" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B74" s="9">
         <v>4141</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>973869</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E74" s="10">
         <v>120015</v>
@@ -4385,17 +4439,17 @@
     </row>
     <row r="75" spans="1:5" ht="15.75">
       <c r="A75" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" s="9">
         <v>2048</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>333736</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E75" s="10">
         <v>240861</v>
@@ -4403,17 +4457,17 @@
     </row>
     <row r="76" spans="1:5" ht="15.75">
       <c r="A76" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" s="9">
         <v>521</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>414622</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E76" s="10">
         <v>122579</v>
@@ -4421,17 +4475,17 @@
     </row>
     <row r="77" spans="1:5" ht="15.75">
       <c r="A77" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" s="9">
         <v>4649</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>109993</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E77" s="10">
         <v>91066</v>
@@ -4439,17 +4493,17 @@
     </row>
     <row r="78" spans="1:5" ht="15.75">
       <c r="A78" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="9">
         <v>463</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>508214</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E78" s="10">
         <v>96176</v>
@@ -4457,17 +4511,17 @@
     </row>
     <row r="79" spans="1:5" ht="15.75">
       <c r="A79" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B79" s="9">
         <v>10001</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>96022</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E79" s="10">
         <v>87800</v>
@@ -4475,17 +4529,17 @@
     </row>
     <row r="80" spans="1:5" ht="15.75">
       <c r="A80" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" s="9">
         <v>1770</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>96022</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E80" s="10">
         <v>1377792</v>
@@ -4493,17 +4547,17 @@
     </row>
     <row r="81" spans="1:10" ht="15.75">
       <c r="A81" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81" s="9">
         <v>1685</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>408412</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E81" s="10">
         <v>108475</v>
@@ -4511,17 +4565,17 @@
     </row>
     <row r="82" spans="1:10" ht="15.75">
       <c r="A82" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B82" s="9">
         <v>1829</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>578021</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E82" s="10">
         <v>101023</v>
@@ -4530,17 +4584,17 @@
     </row>
     <row r="83" spans="1:10" ht="15.75">
       <c r="A83" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B83" s="9">
         <v>1874</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>307723</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E83" s="10">
         <v>85642</v>
@@ -4548,17 +4602,17 @@
     </row>
     <row r="84" spans="1:10" ht="15.75">
       <c r="A84" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B84" s="9">
         <v>1049</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>513270</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E84" s="10">
         <v>95132</v>
@@ -4566,17 +4620,17 @@
     </row>
     <row r="85" spans="1:10" ht="15.75">
       <c r="A85" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B85" s="9">
         <v>1652</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240131</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E85" s="10">
         <v>102744</v>
@@ -4584,17 +4638,17 @@
     </row>
     <row r="86" spans="1:10" ht="15.75">
       <c r="A86" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" s="9">
         <v>1795</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>361903</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E86" s="10">
         <v>97729</v>
@@ -4602,17 +4656,17 @@
     </row>
     <row r="87" spans="1:10" ht="15.75">
       <c r="A87" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B87" s="9">
         <v>3731</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>547901</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E87" s="10">
         <v>175068</v>
@@ -4620,17 +4674,17 @@
     </row>
     <row r="88" spans="1:10" ht="15.75">
       <c r="A88" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" s="9">
         <v>365</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1154077</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E88" s="10">
         <v>409331</v>
@@ -4638,7 +4692,7 @@
     </row>
     <row r="89" spans="1:10" ht="15.75">
       <c r="A89" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B89" s="9">
         <v>1501</v>
@@ -4648,7 +4702,7 @@
         <v>570358</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E89" s="10">
         <v>628208</v>
@@ -4656,17 +4710,17 @@
     </row>
     <row r="90" spans="1:10" ht="15.75">
       <c r="A90" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B90" s="9">
         <v>640</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>519679</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E90" s="10">
         <v>587256</v>
@@ -4674,17 +4728,17 @@
     </row>
     <row r="91" spans="1:10" ht="15.75">
       <c r="A91" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B91" s="9">
         <v>1438</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000709</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E91" s="10">
         <v>248785</v>
@@ -4692,17 +4746,17 @@
     </row>
     <row r="92" spans="1:10" ht="15.75">
       <c r="A92" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92" s="9">
         <v>1010</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>263567</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E92" s="10">
         <v>1143563</v>
@@ -4710,17 +4764,17 @@
     </row>
     <row r="93" spans="1:10" ht="15.75">
       <c r="A93" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93" s="9">
         <v>733</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>203990</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E93" s="10">
         <v>431591</v>
@@ -4728,17 +4782,17 @@
     </row>
     <row r="94" spans="1:10" ht="15.75">
       <c r="A94" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B94" s="9">
         <v>193</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>525093</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E94" s="10">
         <v>325205</v>
@@ -4746,17 +4800,17 @@
     </row>
     <row r="95" spans="1:10" ht="31.5">
       <c r="A95" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95" s="9">
         <v>660</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>297438</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E95" s="10">
         <v>174758</v>
@@ -4764,17 +4818,17 @@
     </row>
     <row r="96" spans="1:10" ht="31.5">
       <c r="A96" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B96" s="9">
         <v>848</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>836951</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E96" s="10">
         <v>95402</v>
@@ -4782,17 +4836,17 @@
     </row>
     <row r="97" spans="1:5" ht="15.75">
       <c r="A97" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="9">
         <v>393</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>326905</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E97" s="10">
         <v>119993</v>
@@ -4800,17 +4854,17 @@
     </row>
     <row r="98" spans="1:5" ht="15.75">
       <c r="A98" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="9">
         <v>1584</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>343323</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E98" s="10">
         <v>94303</v>
@@ -4818,17 +4872,17 @@
     </row>
     <row r="99" spans="1:5" ht="15.75">
       <c r="A99" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" s="9">
         <v>1411</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>398313</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E99" s="10">
         <v>103953</v>
@@ -4836,17 +4890,17 @@
     </row>
     <row r="100" spans="1:5" ht="15.75">
       <c r="A100" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="9">
         <v>1471</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>273518</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E100" s="10">
         <v>532923</v>
@@ -4854,17 +4908,17 @@
     </row>
     <row r="101" spans="1:5" ht="15.75">
       <c r="A101" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B101" s="9">
         <v>2876</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" ref="C101:C107" si="2">LOOKUP(A101:A185,D101:D300,E101:E300)</f>
+        <f t="shared" ref="C101:C107" si="4">LOOKUP(A101:A185,D101:D300,E101:E300)</f>
         <v>306753</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E101" s="10">
         <v>88196</v>
@@ -4872,17 +4926,17 @@
     </row>
     <row r="102" spans="1:5" ht="15.75">
       <c r="A102" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102" s="9">
         <v>1319</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>235106</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E102" s="10">
         <v>473756</v>
@@ -4890,17 +4944,17 @@
     </row>
     <row r="103" spans="1:5" ht="15.75">
       <c r="A103" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B103" s="9">
         <v>455</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>280486</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E103" s="10">
         <v>98439</v>
@@ -4908,17 +4962,17 @@
     </row>
     <row r="104" spans="1:5" ht="15.75">
       <c r="A104" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B104" s="9">
         <v>169</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>403772</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E104" s="10">
         <v>128585</v>
@@ -4926,17 +4980,17 @@
     </row>
     <row r="105" spans="1:5" ht="15.75">
       <c r="A105" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B105" s="9">
         <v>988</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>719552</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E105" s="10">
         <v>145508</v>
@@ -4944,17 +4998,17 @@
     </row>
     <row r="106" spans="1:5" ht="15.75">
       <c r="A106" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B106" s="9">
         <v>3610</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>523025</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E106" s="10">
         <v>144736</v>
@@ -4962,17 +5016,17 @@
     </row>
     <row r="107" spans="1:5" ht="15.75">
       <c r="A107" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B107" s="9">
         <v>181</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>501209</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E107" s="10">
         <v>138026</v>
@@ -4980,7 +5034,7 @@
     </row>
     <row r="108" spans="1:5" ht="31.5">
       <c r="A108" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B108" s="9">
         <v>2075</v>
@@ -4990,7 +5044,7 @@
         <v>581788</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E108" s="10">
         <v>263970</v>
@@ -4998,17 +5052,17 @@
     </row>
     <row r="109" spans="1:5" ht="15.75">
       <c r="A109" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B109" s="9">
         <v>5633</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" ref="C109:C112" si="3">LOOKUP(A109:A193,D109:D308,E109:E308)</f>
+        <f t="shared" ref="C109:C112" si="5">LOOKUP(A109:A193,D109:D308,E109:E308)</f>
         <v>404450</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E109" s="10">
         <v>137656</v>
@@ -5016,17 +5070,17 @@
     </row>
     <row r="110" spans="1:5" ht="15.75">
       <c r="A110" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B110" s="9">
         <v>853</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>613844</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E110" s="10">
         <v>183508</v>
@@ -5034,17 +5088,17 @@
     </row>
     <row r="111" spans="1:5" ht="15.75">
       <c r="A111" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B111" s="9">
         <v>8400</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>577693</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E111" s="10">
         <v>268660</v>
@@ -5052,17 +5106,17 @@
     </row>
     <row r="112" spans="1:5" ht="15.75">
       <c r="A112" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" s="9">
         <v>2616</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>577693</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E112" s="10">
         <v>116763</v>
@@ -5070,17 +5124,17 @@
     </row>
     <row r="113" spans="1:5" ht="15.75">
       <c r="A113" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B113" s="9">
         <v>653</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" ref="C113:C121" si="4">LOOKUP(A113:A197,D113:D312,E113:E312)</f>
+        <f t="shared" ref="C113:C121" si="6">LOOKUP(A113:A197,D113:D312,E113:E312)</f>
         <v>447991</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E113" s="10">
         <v>744977</v>
@@ -5088,17 +5142,17 @@
     </row>
     <row r="114" spans="1:5" ht="15.75">
       <c r="A114" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B114" s="9">
         <v>498</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>312359</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E114" s="10">
         <v>973869</v>
@@ -5106,17 +5160,17 @@
     </row>
     <row r="115" spans="1:5" ht="15.75">
       <c r="A115" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115" s="9">
         <v>1491</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121519</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E115" s="10">
         <v>88947</v>
@@ -5124,17 +5178,17 @@
     </row>
     <row r="116" spans="1:5" ht="15.75">
       <c r="A116" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B116" s="9">
         <v>6285</v>
       </c>
       <c r="C116" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>324050</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E116" s="10">
         <v>333736</v>
@@ -5142,17 +5196,17 @@
     </row>
     <row r="117" spans="1:5" ht="15.75">
       <c r="A117" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B117" s="9">
         <v>1261</v>
       </c>
       <c r="C117" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>103767</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E117" s="10">
         <v>414622</v>
@@ -5160,17 +5214,17 @@
     </row>
     <row r="118" spans="1:5" ht="15.75">
       <c r="A118" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B118" s="9">
         <v>9308</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>181820</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E118" s="10">
         <v>109993</v>
@@ -5178,17 +5232,17 @@
     </row>
     <row r="119" spans="1:5" ht="31.5">
       <c r="A119" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B119" s="9">
         <v>8364</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>269515</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E119" s="10">
         <v>101717</v>
@@ -5196,29 +5250,25 @@
     </row>
     <row r="120" spans="1:5" ht="15.75">
       <c r="A120" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B120" s="9">
         <v>274</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>591508</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E120" s="10">
         <v>508214</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75">
-      <c r="C121" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
       <c r="D121" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E121" s="10">
         <v>172017</v>
@@ -5226,7 +5276,7 @@
     </row>
     <row r="122" spans="1:5" ht="15.75">
       <c r="D122" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E122" s="10">
         <v>96022</v>
@@ -5234,7 +5284,7 @@
     </row>
     <row r="123" spans="1:5" ht="15.75">
       <c r="D123" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E123" s="10">
         <v>408412</v>
@@ -5242,7 +5292,7 @@
     </row>
     <row r="124" spans="1:5" ht="15.75">
       <c r="D124" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E124" s="10">
         <v>144270</v>
@@ -5250,7 +5300,7 @@
     </row>
     <row r="125" spans="1:5" ht="15.75">
       <c r="D125" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E125" s="10">
         <v>578021</v>
@@ -5258,7 +5308,7 @@
     </row>
     <row r="126" spans="1:5" ht="15.75">
       <c r="D126" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E126" s="10">
         <v>102063</v>
@@ -5266,7 +5316,7 @@
     </row>
     <row r="127" spans="1:5" ht="15.75">
       <c r="D127" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E127" s="10">
         <v>151858</v>
@@ -5274,7 +5324,7 @@
     </row>
     <row r="128" spans="1:5" ht="15.75">
       <c r="D128" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E128" s="10">
         <v>98820</v>
@@ -5282,7 +5332,7 @@
     </row>
     <row r="129" spans="4:5" ht="15.75">
       <c r="D129" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E129" s="10">
         <v>11514370</v>
@@ -5290,7 +5340,7 @@
     </row>
     <row r="130" spans="4:5" ht="15.75">
       <c r="D130" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E130" s="10">
         <v>307723</v>
@@ -5298,7 +5348,7 @@
     </row>
     <row r="131" spans="4:5" ht="15.75">
       <c r="D131" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E131" s="10">
         <v>116127</v>
@@ -5306,7 +5356,7 @@
     </row>
     <row r="132" spans="4:5" ht="15.75">
       <c r="D132" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E132" s="10">
         <v>173396</v>
@@ -5314,7 +5364,7 @@
     </row>
     <row r="133" spans="4:5" ht="31.5">
       <c r="D133" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E133" s="10">
         <v>513270</v>
@@ -5322,7 +5372,7 @@
     </row>
     <row r="134" spans="4:5" ht="12.75" customHeight="1">
       <c r="D134" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E134" s="10">
         <v>93369</v>
@@ -5330,7 +5380,7 @@
     </row>
     <row r="135" spans="4:5" ht="20.25" customHeight="1">
       <c r="D135" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E135" s="10">
         <v>240131</v>
@@ -5338,7 +5388,7 @@
     </row>
     <row r="136" spans="4:5" ht="15.75">
       <c r="D136" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E136" s="10">
         <v>159740</v>
@@ -5346,7 +5396,7 @@
     </row>
     <row r="137" spans="4:5" ht="15.75">
       <c r="D137" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E137" s="10">
         <v>118426</v>
@@ -5354,7 +5404,7 @@
     </row>
     <row r="138" spans="4:5" ht="15.75">
       <c r="D138" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E138" s="10">
         <v>121821</v>
@@ -5362,7 +5412,7 @@
     </row>
     <row r="139" spans="4:5" ht="15.75">
       <c r="D139" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E139" s="10">
         <v>123357</v>
@@ -5370,7 +5420,7 @@
     </row>
     <row r="140" spans="4:5" ht="15.75">
       <c r="D140" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E140" s="10">
         <v>251883</v>
@@ -5378,7 +5428,7 @@
     </row>
     <row r="141" spans="4:5" ht="15.75">
       <c r="D141" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E141" s="10">
         <v>234123</v>
@@ -5386,7 +5436,7 @@
     </row>
     <row r="142" spans="4:5" ht="15.75">
       <c r="D142" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E142" s="10">
         <v>1250639</v>
@@ -5394,7 +5444,7 @@
     </row>
     <row r="143" spans="4:5" ht="15.75">
       <c r="D143" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E143" s="10">
         <v>361903</v>
@@ -5402,7 +5452,7 @@
     </row>
     <row r="144" spans="4:5" ht="15.75">
       <c r="D144" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E144" s="10">
         <v>547901</v>
@@ -5410,7 +5460,7 @@
     </row>
     <row r="145" spans="4:5" ht="15.75">
       <c r="D145" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E145" s="10">
         <v>108472</v>
@@ -5418,7 +5468,7 @@
     </row>
     <row r="146" spans="4:5" ht="15.75">
       <c r="D146" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E146" s="10">
         <v>131269</v>
@@ -5426,7 +5476,7 @@
     </row>
     <row r="147" spans="4:5" ht="15.75">
       <c r="D147" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E147" s="10">
         <v>241856</v>
@@ -5434,7 +5484,7 @@
     </row>
     <row r="148" spans="4:5" ht="15.75">
       <c r="D148" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E148" s="10">
         <v>1499011</v>
@@ -5442,7 +5492,7 @@
     </row>
     <row r="149" spans="4:5" ht="15.75">
       <c r="D149" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E149" s="10">
         <v>97932</v>
@@ -5450,7 +5500,7 @@
     </row>
     <row r="150" spans="4:5" ht="15.75">
       <c r="D150" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E150" s="10">
         <v>91912</v>
@@ -5458,7 +5508,7 @@
     </row>
     <row r="151" spans="4:5" ht="15.75">
       <c r="D151" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E151" s="10">
         <v>124193</v>
@@ -5466,7 +5516,7 @@
     </row>
     <row r="152" spans="4:5" ht="15.75">
       <c r="D152" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E152" s="12">
         <v>169111</v>
@@ -5474,7 +5524,7 @@
     </row>
     <row r="153" spans="4:5" ht="15.75">
       <c r="D153" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E153" s="12">
         <v>111131</v>
@@ -5482,7 +5532,7 @@
     </row>
     <row r="154" spans="4:5" ht="15.75">
       <c r="D154" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E154" s="12">
         <v>104164</v>
@@ -5490,7 +5540,7 @@
     </row>
     <row r="155" spans="4:5" ht="15.75">
       <c r="D155" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E155" s="12">
         <v>99809</v>
@@ -5498,7 +5548,7 @@
     </row>
     <row r="156" spans="4:5" ht="15.75">
       <c r="D156" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E156" s="12">
         <v>175344</v>
@@ -5506,7 +5556,7 @@
     </row>
     <row r="157" spans="4:5" ht="15.75">
       <c r="D157" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E157" s="12">
         <v>110630</v>
@@ -5514,7 +5564,7 @@
     </row>
     <row r="158" spans="4:5" ht="15.75">
       <c r="D158" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E158" s="12">
         <v>104814</v>
@@ -5522,7 +5572,7 @@
     </row>
     <row r="159" spans="4:5" ht="15.75">
       <c r="D159" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E159" s="12">
         <v>139110</v>
@@ -5530,7 +5580,7 @@
     </row>
     <row r="160" spans="4:5" ht="15.75">
       <c r="D160" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E160" s="12">
         <v>109433</v>
@@ -5538,7 +5588,7 @@
     </row>
     <row r="161" spans="4:5" ht="15.75">
       <c r="D161" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E161" s="12">
         <v>1154077</v>
@@ -5546,7 +5596,7 @@
     </row>
     <row r="162" spans="4:5" ht="15.75">
       <c r="D162" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E162" s="12">
         <v>570358</v>
@@ -5554,7 +5604,7 @@
     </row>
     <row r="163" spans="4:5" ht="15.75">
       <c r="D163" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E163" s="12">
         <v>120685</v>
@@ -5562,7 +5612,7 @@
     </row>
     <row r="164" spans="4:5" ht="15.75">
       <c r="D164" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E164" s="12">
         <v>238105</v>
@@ -5570,7 +5620,7 @@
     </row>
     <row r="165" spans="4:5" ht="15.75">
       <c r="D165" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E165" s="12">
         <v>317911</v>
@@ -5578,7 +5628,7 @@
     </row>
     <row r="166" spans="4:5" ht="15.75">
       <c r="D166" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E166" s="12">
         <v>519679</v>
@@ -5586,7 +5636,7 @@
     </row>
     <row r="167" spans="4:5" ht="15.75">
       <c r="D167" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E167" s="12">
         <v>149886</v>
@@ -5594,7 +5644,7 @@
     </row>
     <row r="168" spans="4:5" ht="15.75">
       <c r="D168" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E168" s="12">
         <v>1000709</v>
@@ -5602,7 +5652,7 @@
     </row>
     <row r="169" spans="4:5" ht="15.75">
       <c r="D169" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E169" s="12">
         <v>263567</v>
@@ -5610,7 +5660,7 @@
     </row>
     <row r="170" spans="4:5" ht="31.5">
       <c r="D170" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E170" s="12">
         <v>179560</v>
@@ -5618,7 +5668,7 @@
     </row>
     <row r="171" spans="4:5" ht="15.75">
       <c r="D171" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E171" s="12">
         <v>188022</v>
@@ -5626,7 +5676,7 @@
     </row>
     <row r="172" spans="4:5" ht="15.75">
       <c r="D172" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E172" s="12">
         <v>210225</v>
@@ -5634,7 +5684,7 @@
     </row>
     <row r="173" spans="4:5" ht="15.75">
       <c r="D173" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E173" s="12">
         <v>203990</v>
@@ -5642,7 +5692,7 @@
     </row>
     <row r="174" spans="4:5" ht="15.75">
       <c r="D174" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E174" s="12">
         <v>92744</v>
@@ -5650,7 +5700,7 @@
     </row>
     <row r="175" spans="4:5" ht="15.75">
       <c r="D175" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E175" s="12">
         <v>102856</v>
@@ -5658,7 +5708,7 @@
     </row>
     <row r="176" spans="4:5" ht="15.75">
       <c r="D176" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E176" s="12">
         <v>142468</v>
@@ -5666,7 +5716,7 @@
     </row>
     <row r="177" spans="4:5" ht="15.75">
       <c r="D177" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E177" s="12">
         <v>96395</v>
@@ -5674,7 +5724,7 @@
     </row>
     <row r="178" spans="4:5" ht="15.75">
       <c r="D178" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E178" s="12">
         <v>87248</v>
@@ -5682,7 +5732,7 @@
     </row>
     <row r="179" spans="4:5" ht="15.75">
       <c r="D179" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E179" s="12">
         <v>1091635</v>
@@ -5690,7 +5740,7 @@
     </row>
     <row r="180" spans="4:5" ht="15.75">
       <c r="D180" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E180" s="12">
         <v>147050</v>
@@ -5698,7 +5748,7 @@
     </row>
     <row r="181" spans="4:5" ht="15.75">
       <c r="D181" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E181" s="12">
         <v>200831</v>
@@ -5706,7 +5756,7 @@
     </row>
     <row r="182" spans="4:5" ht="15.75">
       <c r="D182" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E182" s="12">
         <v>525093</v>
@@ -5714,7 +5764,7 @@
     </row>
     <row r="183" spans="4:5" ht="15.75">
       <c r="D183" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E183" s="12">
         <v>156151</v>
@@ -5722,7 +5772,7 @@
     </row>
     <row r="184" spans="4:5" ht="15.75">
       <c r="D184" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E184" s="12">
         <v>1164916</v>
@@ -5730,7 +5780,7 @@
     </row>
     <row r="185" spans="4:5" ht="15.75">
       <c r="D185" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E185" s="12">
         <v>4848814</v>
@@ -5738,7 +5788,7 @@
     </row>
     <row r="186" spans="4:5" ht="15.75">
       <c r="D186" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E186" s="12">
         <v>297438</v>
@@ -5746,7 +5796,7 @@
     </row>
     <row r="187" spans="4:5" ht="15.75">
       <c r="D187" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E187" s="12">
         <v>101487</v>
@@ -5754,7 +5804,7 @@
     </row>
     <row r="188" spans="4:5" ht="15.75">
       <c r="D188" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E188" s="12">
         <v>836951</v>
@@ -5762,7 +5812,7 @@
     </row>
     <row r="189" spans="4:5" ht="15.75">
       <c r="D189" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E189" s="12">
         <v>92086</v>
@@ -5770,7 +5820,7 @@
     </row>
     <row r="190" spans="4:5" ht="15.75">
       <c r="D190" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E190" s="12">
         <v>192311</v>
@@ -5778,7 +5828,7 @@
     </row>
     <row r="191" spans="4:5" ht="15.75">
       <c r="D191" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E191" s="12">
         <v>108566</v>
@@ -5786,7 +5836,7 @@
     </row>
     <row r="192" spans="4:5" ht="15.75">
       <c r="D192" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E192" s="12">
         <v>110913</v>
@@ -5794,7 +5844,7 @@
     </row>
     <row r="193" spans="4:5" ht="15.75">
       <c r="D193" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E193" s="12">
         <v>99404</v>
@@ -5802,7 +5852,7 @@
     </row>
     <row r="194" spans="4:5" ht="15.75">
       <c r="D194" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E194" s="12">
         <v>126586</v>
@@ -5810,7 +5860,7 @@
     </row>
     <row r="195" spans="4:5" ht="15.75">
       <c r="D195" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E195" s="12">
         <v>326905</v>
@@ -5818,7 +5868,7 @@
     </row>
     <row r="196" spans="4:5" ht="15.75">
       <c r="D196" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E196" s="12">
         <v>97291</v>
@@ -5826,7 +5876,7 @@
     </row>
     <row r="197" spans="4:5" ht="15.75">
       <c r="D197" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E197" s="12">
         <v>343323</v>
@@ -5834,7 +5884,7 @@
     </row>
     <row r="198" spans="4:5" ht="15.75">
       <c r="D198" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E198" s="12">
         <v>398313</v>
@@ -5842,7 +5892,7 @@
     </row>
     <row r="199" spans="4:5" ht="15.75">
       <c r="D199" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E199" s="12">
         <v>221200</v>
@@ -5850,7 +5900,7 @@
     </row>
     <row r="200" spans="4:5" ht="15.75">
       <c r="D200" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E200" s="12">
         <v>273518</v>
@@ -5858,7 +5908,7 @@
     </row>
     <row r="201" spans="4:5" ht="15.75">
       <c r="D201" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E201" s="12">
         <v>306753</v>
@@ -5866,7 +5916,7 @@
     </row>
     <row r="202" spans="4:5" ht="15.75">
       <c r="D202" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E202" s="12">
         <v>178797</v>
@@ -5874,7 +5924,7 @@
     </row>
     <row r="203" spans="4:5" ht="15.75">
       <c r="D203" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E203" s="12">
         <v>235106</v>
@@ -5882,7 +5932,7 @@
     </row>
     <row r="204" spans="4:5" ht="15.75">
       <c r="D204" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E204" s="12">
         <v>257774</v>
@@ -5890,7 +5940,7 @@
     </row>
     <row r="205" spans="4:5" ht="15.75">
       <c r="D205" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E205" s="12">
         <v>280486</v>
@@ -5898,7 +5948,7 @@
     </row>
     <row r="206" spans="4:5" ht="15.75">
       <c r="D206" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E206" s="12">
         <v>403772</v>
@@ -5906,7 +5956,7 @@
     </row>
     <row r="207" spans="4:5" ht="15.75">
       <c r="D207" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E207" s="12">
         <v>99794</v>
@@ -5914,7 +5964,7 @@
     </row>
     <row r="208" spans="4:5" ht="15.75">
       <c r="D208" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E208" s="12">
         <v>719552</v>
@@ -5922,7 +5972,7 @@
     </row>
     <row r="209" spans="4:5" ht="15.75">
       <c r="D209" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E209" s="12">
         <v>523025</v>
@@ -5930,7 +5980,7 @@
     </row>
     <row r="210" spans="4:5" ht="15.75">
       <c r="D210" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E210" s="12">
         <v>501209</v>
@@ -5938,7 +5988,7 @@
     </row>
     <row r="211" spans="4:5" ht="15.75">
       <c r="D211" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E211" s="12">
         <v>581788</v>
@@ -5946,7 +5996,7 @@
     </row>
     <row r="212" spans="4:5" ht="15.75">
       <c r="D212" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E212" s="12">
         <v>404450</v>
@@ -5954,7 +6004,7 @@
     </row>
     <row r="213" spans="4:5" ht="15.75">
       <c r="D213" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E213" s="12">
         <v>613844</v>
@@ -5962,7 +6012,7 @@
     </row>
     <row r="214" spans="4:5" ht="15.75">
       <c r="D214" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E214" s="12">
         <v>83457</v>
@@ -5970,7 +6020,7 @@
     </row>
     <row r="215" spans="4:5" ht="15.75">
       <c r="D215" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E215" s="12">
         <v>157962</v>
@@ -5978,7 +6028,7 @@
     </row>
     <row r="216" spans="4:5" ht="15.75">
       <c r="D216" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E216" s="12">
         <v>86608</v>
@@ -5986,7 +6036,7 @@
     </row>
     <row r="217" spans="4:5" ht="15.75">
       <c r="D217" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E217" s="12">
         <v>1062329</v>
@@ -5994,7 +6044,7 @@
     </row>
     <row r="218" spans="4:5" ht="15.75">
       <c r="D218" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E218" s="12">
         <v>99728</v>
@@ -6002,7 +6052,7 @@
     </row>
     <row r="219" spans="4:5" ht="15.75">
       <c r="D219" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E219" s="12">
         <v>577693</v>
@@ -6010,7 +6060,7 @@
     </row>
     <row r="220" spans="4:5" ht="15.75">
       <c r="D220" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E220" s="12">
         <v>134001</v>
@@ -6018,7 +6068,7 @@
     </row>
     <row r="221" spans="4:5" ht="15.75">
       <c r="D221" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E221" s="12">
         <v>207181</v>
@@ -6026,7 +6076,7 @@
     </row>
     <row r="222" spans="4:5" ht="15.75">
       <c r="D222" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E222" s="12">
         <v>82969</v>
@@ -6034,7 +6084,7 @@
     </row>
     <row r="223" spans="4:5" ht="15.75">
       <c r="D223" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E223" s="12">
         <v>447991</v>
@@ -6042,7 +6092,7 @@
     </row>
     <row r="224" spans="4:5" ht="15.75">
       <c r="D224" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E224" s="12">
         <v>1130319</v>
@@ -6050,7 +6100,7 @@
     </row>
     <row r="225" spans="4:5" ht="15.75">
       <c r="D225" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E225" s="12">
         <v>312359</v>
@@ -6058,7 +6108,7 @@
     </row>
     <row r="226" spans="4:5" ht="15.75">
       <c r="D226" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E226" s="12">
         <v>121519</v>
@@ -6066,7 +6116,7 @@
     </row>
     <row r="227" spans="4:5" ht="15.75">
       <c r="D227" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E227" s="12">
         <v>324050</v>
@@ -6074,7 +6124,7 @@
     </row>
     <row r="228" spans="4:5" ht="15.75">
       <c r="D228" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E228" s="12">
         <v>240215</v>
@@ -6082,7 +6132,7 @@
     </row>
     <row r="229" spans="4:5" ht="15.75">
       <c r="D229" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E229" s="12">
         <v>110423</v>
@@ -6090,7 +6140,7 @@
     </row>
     <row r="230" spans="4:5" ht="15.75">
       <c r="D230" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E230" s="12">
         <v>155396</v>
@@ -6098,7 +6148,7 @@
     </row>
     <row r="231" spans="4:5" ht="15.75">
       <c r="D231" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E231" s="12">
         <v>103767</v>
@@ -6106,7 +6156,7 @@
     </row>
     <row r="232" spans="4:5" ht="15.75">
       <c r="D232" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E232" s="12">
         <v>202898</v>
@@ -6114,7 +6164,7 @@
     </row>
     <row r="233" spans="4:5" ht="15.75">
       <c r="D233" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E233" s="12">
         <v>181820</v>
@@ -6122,7 +6172,7 @@
     </row>
     <row r="234" spans="4:5" ht="15.75">
       <c r="D234" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E234" s="12">
         <v>269515</v>
@@ -6130,7 +6180,7 @@
     </row>
     <row r="235" spans="4:5" ht="15.75">
       <c r="D235" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E235" s="12">
         <v>591508</v>
@@ -6141,12 +6191,12 @@
         <v>4</v>
       </c>
       <c r="F242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="15.75">
       <c r="A243" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B243" s="21">
         <v>965</v>
@@ -6164,7 +6214,7 @@
     </row>
     <row r="244" spans="1:6" ht="15.75">
       <c r="A244" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B244" s="21">
         <v>1745</v>
@@ -6175,7 +6225,7 @@
     </row>
     <row r="245" spans="1:6" ht="15.75">
       <c r="A245" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B245" s="21">
         <v>807</v>
@@ -6186,7 +6236,7 @@
     </row>
     <row r="246" spans="1:6" ht="15.75">
       <c r="A246" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B246" s="21">
         <v>416</v>
@@ -6197,7 +6247,7 @@
     </row>
     <row r="247" spans="1:6" ht="15.75">
       <c r="A247" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B247" s="21">
         <v>3350</v>
@@ -6208,7 +6258,7 @@
     </row>
     <row r="248" spans="1:6" ht="15.75">
       <c r="A248" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B248" s="21">
         <v>2697</v>
@@ -6219,7 +6269,7 @@
     </row>
     <row r="249" spans="1:6" ht="15.75">
       <c r="A249" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B249" s="21">
         <v>1070</v>
@@ -6230,7 +6280,7 @@
     </row>
     <row r="250" spans="1:6" ht="15.75">
       <c r="A250" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B250" s="21">
         <v>1066</v>
@@ -6241,7 +6291,7 @@
     </row>
     <row r="251" spans="1:6" ht="15.75">
       <c r="A251" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B251" s="21">
         <v>714</v>
@@ -6252,7 +6302,7 @@
     </row>
     <row r="252" spans="1:6" ht="15.75">
       <c r="A252" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B252" s="21">
         <v>1336</v>
@@ -6263,7 +6313,7 @@
     </row>
     <row r="253" spans="1:6" ht="15.75">
       <c r="A253" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B253" s="21">
         <v>1763</v>
@@ -6274,7 +6324,7 @@
     </row>
     <row r="254" spans="1:6" ht="15.75">
       <c r="A254" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B254" s="21">
         <v>4247</v>
@@ -6285,7 +6335,7 @@
     </row>
     <row r="255" spans="1:6" ht="15.75">
       <c r="A255" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B255" s="21">
         <v>1254</v>
@@ -6296,7 +6346,7 @@
     </row>
     <row r="256" spans="1:6" ht="15.75">
       <c r="A256" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B256" s="21">
         <v>1393</v>
@@ -6307,7 +6357,7 @@
     </row>
     <row r="257" spans="1:3" ht="15.75">
       <c r="A257" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B257" s="21">
         <v>3574</v>
@@ -6318,7 +6368,7 @@
     </row>
     <row r="258" spans="1:3" ht="15.75">
       <c r="A258" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B258" s="21">
         <v>668</v>
@@ -6329,7 +6379,7 @@
     </row>
     <row r="259" spans="1:3" ht="15.75">
       <c r="A259" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B259" s="21">
         <v>7846</v>
@@ -6340,7 +6390,7 @@
     </row>
     <row r="260" spans="1:3" ht="15.75">
       <c r="A260" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B260" s="21">
         <v>381</v>
@@ -6351,7 +6401,7 @@
     </row>
     <row r="261" spans="1:3" ht="15.75">
       <c r="A261" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B261" s="21">
         <v>530</v>
@@ -6362,7 +6412,7 @@
     </row>
     <row r="262" spans="1:3" ht="15.75">
       <c r="A262" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B262" s="21">
         <v>9165</v>
@@ -6373,7 +6423,7 @@
     </row>
     <row r="263" spans="1:3" ht="15.75">
       <c r="A263" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B263" s="21">
         <v>1766</v>
@@ -6384,7 +6434,7 @@
     </row>
     <row r="264" spans="1:3" ht="15.75">
       <c r="A264" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B264" s="21">
         <v>194</v>
@@ -6395,7 +6445,7 @@
     </row>
     <row r="265" spans="1:3" ht="15.75">
       <c r="A265" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B265" s="21">
         <v>989</v>
@@ -6406,7 +6456,7 @@
     </row>
     <row r="266" spans="1:3" ht="15.75">
       <c r="A266" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B266" s="21">
         <v>477</v>
@@ -6417,7 +6467,7 @@
     </row>
     <row r="267" spans="1:3" ht="15.75">
       <c r="A267" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B267" s="21">
         <v>509</v>
@@ -6428,7 +6478,7 @@
     </row>
     <row r="268" spans="1:3" ht="15.75">
       <c r="A268" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B268" s="21">
         <v>1782</v>
@@ -6439,7 +6489,7 @@
     </row>
     <row r="269" spans="1:3" ht="15.75">
       <c r="A269" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B269" s="21">
         <v>295</v>
@@ -6450,7 +6500,7 @@
     </row>
     <row r="270" spans="1:3" ht="15.75">
       <c r="A270" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B270" s="21">
         <v>1200</v>
@@ -6461,7 +6511,7 @@
     </row>
     <row r="271" spans="1:3" ht="15.75">
       <c r="A271" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B271" s="21">
         <v>5195</v>
@@ -6472,7 +6522,7 @@
     </row>
     <row r="272" spans="1:3" ht="15.75">
       <c r="A272" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B272" s="21">
         <v>748</v>
@@ -6483,7 +6533,7 @@
     </row>
     <row r="273" spans="1:3" ht="15.75">
       <c r="A273" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B273" s="21">
         <v>1238</v>
@@ -6494,7 +6544,7 @@
     </row>
     <row r="274" spans="1:3" ht="15.75">
       <c r="A274" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B274" s="21">
         <v>185</v>
@@ -6505,7 +6555,7 @@
     </row>
     <row r="275" spans="1:3" ht="15.75">
       <c r="A275" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B275" s="21">
         <v>3608</v>
@@ -6516,7 +6566,7 @@
     </row>
     <row r="276" spans="1:3" ht="15.75">
       <c r="A276" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B276" s="21">
         <v>961</v>
@@ -6527,7 +6577,7 @@
     </row>
     <row r="277" spans="1:3" ht="15.75">
       <c r="A277" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B277" s="21">
         <v>346</v>
@@ -6538,7 +6588,7 @@
     </row>
     <row r="278" spans="1:3" ht="15.75">
       <c r="A278" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B278" s="21">
         <v>1345</v>
@@ -6549,7 +6599,7 @@
     </row>
     <row r="279" spans="1:3" ht="15.75">
       <c r="A279" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B279" s="21">
         <v>4141</v>
@@ -6560,7 +6610,7 @@
     </row>
     <row r="280" spans="1:3" ht="15.75">
       <c r="A280" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B280" s="21">
         <v>2048</v>
@@ -6571,7 +6621,7 @@
     </row>
     <row r="281" spans="1:3" ht="15.75">
       <c r="A281" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B281" s="21">
         <v>521</v>
@@ -6582,7 +6632,7 @@
     </row>
     <row r="282" spans="1:3" ht="15.75">
       <c r="A282" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B282" s="21">
         <v>4649</v>
@@ -6593,7 +6643,7 @@
     </row>
     <row r="283" spans="1:3" ht="15.75">
       <c r="A283" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B283" s="21">
         <v>463</v>
@@ -6604,7 +6654,7 @@
     </row>
     <row r="284" spans="1:3" ht="15.75">
       <c r="A284" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B284" s="21">
         <v>10001</v>
@@ -6615,7 +6665,7 @@
     </row>
     <row r="285" spans="1:3" ht="15.75">
       <c r="A285" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B285" s="21">
         <v>1685</v>
@@ -6626,7 +6676,7 @@
     </row>
     <row r="286" spans="1:3" ht="15.75">
       <c r="A286" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B286" s="21">
         <v>1829</v>
@@ -6637,7 +6687,7 @@
     </row>
     <row r="287" spans="1:3" ht="15.75">
       <c r="A287" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B287" s="21">
         <v>1874</v>
@@ -6648,7 +6698,7 @@
     </row>
     <row r="288" spans="1:3" ht="15.75">
       <c r="A288" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B288" s="21">
         <v>1049</v>
@@ -6659,7 +6709,7 @@
     </row>
     <row r="289" spans="1:3" ht="15.75">
       <c r="A289" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B289" s="21">
         <v>1652</v>
@@ -6670,7 +6720,7 @@
     </row>
     <row r="290" spans="1:3" ht="15.75">
       <c r="A290" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B290" s="21">
         <v>1795</v>
@@ -6681,7 +6731,7 @@
     </row>
     <row r="291" spans="1:3" ht="15.75">
       <c r="A291" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B291" s="21">
         <v>3731</v>
@@ -6692,7 +6742,7 @@
     </row>
     <row r="292" spans="1:3" ht="15.75">
       <c r="A292" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B292" s="21">
         <v>365</v>
@@ -6703,7 +6753,7 @@
     </row>
     <row r="293" spans="1:3" ht="15.75">
       <c r="A293" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B293" s="21">
         <v>1501</v>
@@ -6714,7 +6764,7 @@
     </row>
     <row r="294" spans="1:3" ht="15.75">
       <c r="A294" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B294" s="21">
         <v>640</v>
@@ -6725,7 +6775,7 @@
     </row>
     <row r="295" spans="1:3" ht="15.75">
       <c r="A295" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B295" s="21">
         <v>1438</v>
@@ -6736,7 +6786,7 @@
     </row>
     <row r="296" spans="1:3" ht="15.75">
       <c r="A296" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B296" s="21">
         <v>1010</v>
@@ -6747,7 +6797,7 @@
     </row>
     <row r="297" spans="1:3" ht="15.75">
       <c r="A297" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B297" s="21">
         <v>733</v>
@@ -6758,7 +6808,7 @@
     </row>
     <row r="298" spans="1:3" ht="15.75">
       <c r="A298" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B298" s="21">
         <v>193</v>
@@ -6769,7 +6819,7 @@
     </row>
     <row r="299" spans="1:3" ht="15.75">
       <c r="A299" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B299" s="21">
         <v>660</v>
@@ -6780,7 +6830,7 @@
     </row>
     <row r="300" spans="1:3" ht="15.75">
       <c r="A300" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B300" s="21">
         <v>848</v>
@@ -6791,7 +6841,7 @@
     </row>
     <row r="301" spans="1:3" ht="15.75">
       <c r="A301" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B301" s="21">
         <v>393</v>
@@ -6802,7 +6852,7 @@
     </row>
     <row r="302" spans="1:3" ht="15.75">
       <c r="A302" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B302" s="21">
         <v>1584</v>
@@ -6813,7 +6863,7 @@
     </row>
     <row r="303" spans="1:3" ht="15.75">
       <c r="A303" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B303" s="21">
         <v>1411</v>
@@ -6824,7 +6874,7 @@
     </row>
     <row r="304" spans="1:3" ht="15.75">
       <c r="A304" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B304" s="21">
         <v>1471</v>
@@ -6835,7 +6885,7 @@
     </row>
     <row r="305" spans="1:3" ht="15.75">
       <c r="A305" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B305" s="21">
         <v>2876</v>
@@ -6846,7 +6896,7 @@
     </row>
     <row r="306" spans="1:3" ht="15.75">
       <c r="A306" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B306" s="21">
         <v>1319</v>
@@ -6857,7 +6907,7 @@
     </row>
     <row r="307" spans="1:3" ht="15.75">
       <c r="A307" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B307" s="21">
         <v>455</v>
@@ -6868,7 +6918,7 @@
     </row>
     <row r="308" spans="1:3" ht="15.75">
       <c r="A308" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B308" s="21">
         <v>169</v>
@@ -6879,7 +6929,7 @@
     </row>
     <row r="309" spans="1:3" ht="15.75">
       <c r="A309" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B309" s="21">
         <v>988</v>
@@ -6890,7 +6940,7 @@
     </row>
     <row r="310" spans="1:3" ht="15.75">
       <c r="A310" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B310" s="21">
         <v>3610</v>
@@ -6901,7 +6951,7 @@
     </row>
     <row r="311" spans="1:3" ht="15.75">
       <c r="A311" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B311" s="21">
         <v>181</v>
@@ -6912,7 +6962,7 @@
     </row>
     <row r="312" spans="1:3" ht="15.75">
       <c r="A312" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B312" s="21">
         <v>2075</v>
@@ -6923,7 +6973,7 @@
     </row>
     <row r="313" spans="1:3" ht="15.75">
       <c r="A313" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B313" s="21">
         <v>5633</v>
@@ -6934,7 +6984,7 @@
     </row>
     <row r="314" spans="1:3" ht="15.75">
       <c r="A314" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B314" s="21">
         <v>853</v>
@@ -6945,7 +6995,7 @@
     </row>
     <row r="315" spans="1:3" ht="15.75">
       <c r="A315" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B315" s="21">
         <v>8400</v>
@@ -6956,7 +7006,7 @@
     </row>
     <row r="316" spans="1:3" ht="15.75">
       <c r="A316" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B316" s="21">
         <v>653</v>
@@ -6967,7 +7017,7 @@
     </row>
     <row r="317" spans="1:3" ht="15.75">
       <c r="A317" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B317" s="21">
         <v>498</v>
@@ -6978,7 +7028,7 @@
     </row>
     <row r="318" spans="1:3" ht="15.75">
       <c r="A318" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B318" s="21">
         <v>1491</v>
@@ -6989,7 +7039,7 @@
     </row>
     <row r="319" spans="1:3" ht="15.75">
       <c r="A319" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B319" s="21">
         <v>6285</v>
@@ -7000,7 +7050,7 @@
     </row>
     <row r="320" spans="1:3" ht="15.75">
       <c r="A320" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B320" s="21">
         <v>1261</v>
@@ -7011,7 +7061,7 @@
     </row>
     <row r="321" spans="1:3" ht="15.75">
       <c r="A321" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B321" s="21">
         <v>9308</v>
@@ -7022,7 +7072,7 @@
     </row>
     <row r="322" spans="1:3" ht="15.75">
       <c r="A322" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B322" s="21">
         <v>8364</v>
@@ -7033,7 +7083,7 @@
     </row>
     <row r="323" spans="1:3" ht="15.75">
       <c r="A323" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B323" s="21">
         <v>274</v>
